--- a/models/dissertation-model/modelo-ithink/variaveis_globais_a_verificar.xlsx
+++ b/models/dissertation-model/modelo-ithink/variaveis_globais_a_verificar.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sobre" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>aEstimatedAdopters</t>
   </si>
@@ -220,6 +221,9 @@
   </si>
   <si>
     <t>variaveis</t>
+  </si>
+  <si>
+    <t>Este arquivo contém variáveis existentes no ambiente global do modelo do R, na ordem em que são computadas. O objetivo desta lista é selecionar variáveis para verificação e comparação com o Ithink. Esta lista de variáveis foi obtida considerando variáveis existentes no R.</t>
   </si>
 </sst>
 </file>
@@ -884,4 +888,24 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAAAAD2-18C8-46FB-93B3-80BFE33E4CF0}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>